--- a/code/results/SP/D/energy_estimation/energy.xlsx
+++ b/code/results/SP/D/energy_estimation/energy.xlsx
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>406056.7711452068</v>
+        <v>331635.5046109367</v>
       </c>
       <c r="C2" t="n">
-        <v>416573.2771487628</v>
+        <v>355107.5290754035</v>
       </c>
     </row>
   </sheetData>
